--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed5/result_data_RandomForest.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.4924</v>
+        <v>6.171799999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.087799999999995</v>
+        <v>-7.038899999999997</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5779</v>
+        <v>-21.62310000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.868100000000001</v>
+        <v>6.361599999999997</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.111500000000004</v>
+        <v>3.897800000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.376700000000002</v>
+        <v>-7.524900000000001</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.871300000000002</v>
+        <v>4.871600000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2065</v>
+        <v>-21.1965</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.082100000000008</v>
+        <v>9.277800000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.7924</v>
+        <v>-19.7399</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.899500000000002</v>
+        <v>9.092200000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.4644</v>
+        <v>-19.282</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.277099999999999</v>
+        <v>-7.1649</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.817800000000002</v>
+        <v>5.191500000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.69569999999999</v>
+        <v>-21.68030000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.8607</v>
+        <v>-21.7474</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.51860000000001</v>
+        <v>-22.5284</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.793499999999994</v>
+        <v>4.783199999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.336099999999993</v>
+        <v>-8.328999999999997</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.45779999999998</v>
+        <v>-21.44379999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60419999999997</v>
+        <v>-21.57309999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.10660000000003</v>
+        <v>-21.94410000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.563600000000003</v>
+        <v>-8.853600000000005</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.138699999999999</v>
+        <v>-6.275599999999995</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.39290000000002</v>
+        <v>-21.40110000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.124599999999999</v>
+        <v>-6.225899999999995</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.097799999999999</v>
+        <v>-6.199599999999993</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.27839999999998</v>
+        <v>-20.13999999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.364399999999997</v>
+        <v>5.495299999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.301300000000001</v>
+        <v>8.315</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.052100000000003</v>
+        <v>-8.044900000000002</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
